--- a/combineAvgWithGraph.xlsx
+++ b/combineAvgWithGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB7212-F735-400E-AF06-A9236184C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC50AF-9CCF-4AE7-A51E-250D6EDA88E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D8019D4-3172-4D5F-B362-7EAF81C27DAF}"/>
   </bookViews>
@@ -30,6 +30,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>1  mil</t>
+  </si>
+  <si>
+    <t>10mil</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,9 +83,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +175,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$20</c:f>
+              <c:f>Sheet1!$B$1:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -284,6 +309,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -394,6 +420,405 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Array size 10 mil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$9:$AJ$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>220948812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241913654.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226585722.49000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241913343.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242403289.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242405418.99000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242403230.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281296878.68000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>281294254.70999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>281296737.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281294941.57999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>281295171.89999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281291398.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281294145.25999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300832932.31999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>367358488.07999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>367363210.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>367360714.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>367353962.18000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>367359743.33999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D194-4834-A7C8-54D5A00F50BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2132380095"/>
+        <c:axId val="2132379263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2132380095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132379263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132379263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132380095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -461,7 +886,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$20</c:f>
+              <c:f>Sheet1!$C$1:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -772,7 +1197,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$20</c:f>
+              <c:f>Sheet1!$D$1:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1083,7 +1508,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$20</c:f>
+              <c:f>Sheet1!$E$1:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1394,7 +1819,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$20</c:f>
+              <c:f>Sheet1!$F$1:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1638,7 +2063,1648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Array size 1K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$AJ$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9150.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9609.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10328.719999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10330.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11008.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13394.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13409.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13373.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13368.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13391.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13394.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20264.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20219.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20226.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20257.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20305.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20266.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20259.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20277.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-977B-41D5-AACD-FEE748D69ED1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2139952831"/>
+        <c:axId val="2139954079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2139952831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139954079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139954079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139952831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ID" baseline="0"/>
+              <a:t> size 10K</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$AJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>121281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140133.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127238.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140126.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143617.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143596.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143603.57999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182699.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183540.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183666.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183502.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>183650.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183726.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>183532.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183667.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>271880.03000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>272079.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>271884.28000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>271913.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>272120.32000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F52-4A71-B613-CE9414D627BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="135908063"/>
+        <c:axId val="135903903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135908063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135903903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135903903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135908063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Array size 100K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1543673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1640727.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1640841.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1640747.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1827499.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1862728.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1862510.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1862776.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1862740.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2382931.7400000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2382722.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2382850.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2382810.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2382828.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2382981.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2382947.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2383202.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2382743.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2382906.7599999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3509990.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79B8-4CDA-B5D6-342117B0D96D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="135906815"/>
+        <c:axId val="135906399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135906815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135906399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135906399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135906815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Array size 1 mil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$8:$AJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>18763600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20234544.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19681727.690000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20234698.440000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20234235.780000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21603196.440000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23192047.530000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23191033.780000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23190603.129999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23190875.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23191522.789999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25271483.949999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29902599.949999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29902500.640000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29902523.460000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29902476.530000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29901277.649999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29903872.57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29902365.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29901606.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1118-4927-B95C-BF0B2436D06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2132378847"/>
+        <c:axId val="2132380511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2132378847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132380511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132380511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132378847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1838,6 +3904,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2354,7 +4580,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2870,7 +5096,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3386,7 +5612,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3902,7 +6128,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4418,18 +6644,2598 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599702</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>291914</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
@@ -4600,6 +9406,186 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392545</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663BBD5F-91CC-CDA5-3A1F-7B6744D029A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392546</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D35E63-5C67-DED6-EF21-6A40FC331A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177221</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>916130</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772F7E3B-4B94-851E-C6DD-533B5DC11FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178376</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>917285</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D731B6-EE1A-F3C9-C3E9-27ACB1D42C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>916131</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>696768</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50223</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99EBD74-9C85-D2BE-023F-97BB372B6DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4901,357 +9887,789 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC080B90-FCDD-4B89-A0DE-209C92C2CA8A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="36" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
         <v>8802</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>121281</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>1543673</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>18763600</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>220948812</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
         <v>9150.16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>140133.82</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1640727.11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>20234544.48</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>241913654.13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
         <v>9609.43</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>127238.02</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1640841.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>19681727.690000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>226585722.49000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>10328.719999999999</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>140126.47</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1640747.51</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>20234698.440000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>241913343.75</v>
       </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>15</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2">
+        <v>25</v>
+      </c>
+      <c r="V4" s="2">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <v>35</v>
+      </c>
+      <c r="X4" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
         <v>10330.6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>143617.94</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1827499.68</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>20234235.780000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>242403289.59</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8802</v>
+      </c>
+      <c r="R5" s="3">
+        <v>9150.16</v>
+      </c>
+      <c r="S5" s="3">
+        <v>9609.43</v>
+      </c>
+      <c r="T5" s="3">
+        <v>10328.719999999999</v>
+      </c>
+      <c r="U5" s="3">
+        <v>10330.6</v>
+      </c>
+      <c r="V5" s="3">
+        <v>11008.41</v>
+      </c>
+      <c r="W5" s="3">
+        <v>13394.9</v>
+      </c>
+      <c r="X5" s="3">
+        <v>13409.32</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>13373.61</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>13368.07</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>13391.41</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>13394.53</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>20264.71</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>20219.2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>20226.48</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>20257.46</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>20305.16</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>20266.88</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>20259.21</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>20277.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
         <v>11008.41</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>143596.48000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1862728.89</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>21603196.440000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>242405418.99000001</v>
       </c>
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>121281</v>
+      </c>
+      <c r="R6" s="1">
+        <v>140133.82</v>
+      </c>
+      <c r="S6" s="1">
+        <v>127238.02</v>
+      </c>
+      <c r="T6" s="1">
+        <v>140126.47</v>
+      </c>
+      <c r="U6" s="1">
+        <v>143617.94</v>
+      </c>
+      <c r="V6" s="1">
+        <v>143596.48000000001</v>
+      </c>
+      <c r="W6" s="1">
+        <v>143603.57999999999</v>
+      </c>
+      <c r="X6" s="1">
+        <v>182699.96</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>183540.65</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>183666.52</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>183502.22</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>183650.76</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>183726.65</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>183532.7</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>183667.72</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>271880.03000000003</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>272079.06</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>271884.28000000003</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>271913.90000000002</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>272120.32000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3">
         <v>13394.9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>143603.57999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1862510.83</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>23192047.530000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>242403230.37</v>
       </c>
+      <c r="P7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1543673</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1640727.11</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1640841.5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1640747.51</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1827499.68</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1862728.89</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1862510.83</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1862776.33</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1862740.24</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2382931.7400000002</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2382722.2999999998</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2382850.86</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2382810.69</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2382828.16</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2382981.35</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2382947.94</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>2383202.04</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2382743.2999999998</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2382906.7599999998</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>3509990.92</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
         <v>13409.32</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>182699.96</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1862776.33</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>23191033.780000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>281296878.68000001</v>
       </c>
+      <c r="P8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>18763600</v>
+      </c>
+      <c r="R8" s="1">
+        <v>20234544.48</v>
+      </c>
+      <c r="S8" s="1">
+        <v>19681727.690000001</v>
+      </c>
+      <c r="T8" s="1">
+        <v>20234698.440000001</v>
+      </c>
+      <c r="U8" s="1">
+        <v>20234235.780000001</v>
+      </c>
+      <c r="V8" s="1">
+        <v>21603196.440000001</v>
+      </c>
+      <c r="W8" s="1">
+        <v>23192047.530000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>23191033.780000001</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>23190603.129999999</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>23190875.34</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>23191522.789999999</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>25271483.949999999</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>29902599.949999999</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>29902500.640000001</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>29902523.460000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>29902476.530000001</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>29901277.649999999</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>29903872.57</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>29902365.59</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>29901606.66</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
         <v>13373.61</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>183540.65</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1862740.24</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>23190603.129999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>281294254.70999998</v>
       </c>
+      <c r="P9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>220948812</v>
+      </c>
+      <c r="R9" s="1">
+        <v>241913654.13</v>
+      </c>
+      <c r="S9" s="1">
+        <v>226585722.49000001</v>
+      </c>
+      <c r="T9" s="1">
+        <v>241913343.75</v>
+      </c>
+      <c r="U9" s="1">
+        <v>242403289.59</v>
+      </c>
+      <c r="V9" s="1">
+        <v>242405418.99000001</v>
+      </c>
+      <c r="W9" s="1">
+        <v>242403230.37</v>
+      </c>
+      <c r="X9" s="1">
+        <v>281296878.68000001</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>281294254.70999998</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>281296737.06</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>281294941.57999998</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>281295171.89999998</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>281291398.19</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>281294145.25999999</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>300832932.31999999</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>367358488.07999998</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>367363210.38</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>367360714.69</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>367353962.18000001</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>367359743.33999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3">
         <v>13368.07</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>183666.52</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>2382931.7400000002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>23190875.34</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>281296737.06</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3">
         <v>13391.41</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>183502.22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2382722.2999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>23191522.789999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>281294941.57999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3">
         <v>13394.53</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>183650.76</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2382850.86</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>25271483.949999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>281295171.89999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3">
         <v>20264.71</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>183726.65</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>2382810.69</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>29902599.949999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>281291398.19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3">
         <v>20219.2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>183532.7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>2382828.16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>29902500.640000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>281294145.25999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3">
         <v>20226.48</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>183667.72</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>2382981.35</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>29902523.460000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>300832932.31999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3">
         <v>20257.46</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>271880.03000000003</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>2382947.94</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>29902476.530000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>367358488.07999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3">
         <v>20305.16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>272079.06</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>2383202.04</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>29901277.649999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>367363210.38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3">
         <v>20266.88</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>271884.28000000003</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>2382743.2999999998</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>29903872.57</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>367360714.69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3">
         <v>20259.21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>271913.90000000002</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>2382906.7599999998</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>29902365.59</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>367353962.18000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3">
         <v>20277.52</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>272120.32000000001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>3509990.92</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>29901606.66</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>367359743.33999997</v>
       </c>
     </row>
